--- a/GetDisplayInfo/printers.xlsx
+++ b/GetDisplayInfo/printers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,17 +390,17 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -433,7 +433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -444,7 +444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -455,7 +455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
